--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/20/seed1/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.244</v>
+        <v>-7.592000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -499,13 +499,13 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.836</v>
+        <v>5.44</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.582</v>
+        <v>-13.36</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.415999999999999</v>
+        <v>-8.007999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.906</v>
+        <v>-12.927</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -533,10 +533,10 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>6.55</v>
+        <v>6.164</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.724</v>
+        <v>-12.284</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.31</v>
+        <v>6.234999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.064000000000001</v>
+        <v>5.727</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.884</v>
+        <v>-12.684</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.722</v>
+        <v>-8.015000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.302</v>
+        <v>-7.653</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.722</v>
+        <v>-8.028</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>6.568</v>
+        <v>5.898999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.842</v>
+        <v>-12.849</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.536000000000001</v>
+        <v>-7.702</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.354</v>
+        <v>5.487</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>6.337999999999999</v>
+        <v>5.809</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.058</v>
+        <v>-12.78</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.242000000000001</v>
+        <v>-7.653</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
